--- a/teaching/traditional_assets/database/data/cyprus/cyprus_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/cyprus/cyprus_insurance_general.xlsx
@@ -591,121 +591,118 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0007600000000000007</v>
+        <v>0.008650000000000001</v>
       </c>
       <c r="E2">
-        <v>-0.0111</v>
+        <v>0.2570000000000001</v>
       </c>
       <c r="G2">
-        <v>0.06283286118980171</v>
+        <v>0.2540117994100295</v>
       </c>
       <c r="H2">
-        <v>0.06283286118980171</v>
+        <v>0.2540117994100295</v>
       </c>
       <c r="I2">
-        <v>0.1081869688385269</v>
+        <v>0.07415929203539824</v>
       </c>
       <c r="J2">
-        <v>0.1000172944426958</v>
+        <v>0.05833450586884883</v>
       </c>
       <c r="K2">
-        <v>3.345</v>
+        <v>2.013</v>
       </c>
       <c r="L2">
-        <v>0.09475920679886687</v>
+        <v>0.05938053097345133</v>
       </c>
       <c r="M2">
-        <v>4.21</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.06931182087586434</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.258594917787743</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.21</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.06931182087586434</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.258594917787743</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>25.44</v>
+        <v>11.41</v>
       </c>
       <c r="V2">
-        <v>0.418834376028976</v>
+        <v>0.161614730878187</v>
       </c>
       <c r="W2">
-        <v>-0.002340702210663195</v>
+        <v>0.061272412285128</v>
       </c>
       <c r="X2">
-        <v>0.09960243820426135</v>
+        <v>0.08364952059172212</v>
       </c>
       <c r="Y2">
-        <v>-0.1019431404149245</v>
+        <v>-0.02237710830659412</v>
       </c>
       <c r="Z2">
-        <v>1.381280325559555</v>
+        <v>1.233804047168438</v>
       </c>
       <c r="AA2">
-        <v>-0.1025424407674108</v>
+        <v>0.07464194047739327</v>
       </c>
       <c r="AB2">
-        <v>0.0729824731854951</v>
+        <v>0.06758500954196445</v>
       </c>
       <c r="AC2">
-        <v>-0.1755249139529059</v>
+        <v>0.007056930935428824</v>
       </c>
       <c r="AD2">
-        <v>5.161</v>
+        <v>4.789</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>5.161</v>
+        <v>4.789</v>
       </c>
       <c r="AG2">
-        <v>-20.279</v>
+        <v>-6.621</v>
       </c>
       <c r="AH2">
-        <v>0.07831444135900821</v>
+        <v>0.06352385626550291</v>
       </c>
       <c r="AI2">
-        <v>0.09664613022228048</v>
+        <v>0.08808328275303941</v>
       </c>
       <c r="AJ2">
-        <v>-0.5011986851536048</v>
+        <v>-0.1034870816986824</v>
       </c>
       <c r="AK2">
-        <v>-0.7252601838274744</v>
+        <v>-0.1541236993412324</v>
       </c>
       <c r="AL2">
-        <v>0.147</v>
+        <v>0.149</v>
       </c>
       <c r="AM2">
-        <v>0.147</v>
+        <v>0.149</v>
       </c>
       <c r="AN2">
-        <v>1.232624791019823</v>
+        <v>1.6054307743882</v>
       </c>
       <c r="AO2">
-        <v>25.97959183673469</v>
+        <v>16.87248322147651</v>
       </c>
       <c r="AP2">
-        <v>-4.843324576068785</v>
+        <v>-2.219577606436474</v>
       </c>
       <c r="AQ2">
-        <v>25.97959183673469</v>
+        <v>16.87248322147651</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Atlantic Insurance Company Public Limited (CSE:ATL)</t>
+          <t>Minerva Insurance Company Public Ltd (CSE:MINE)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,115 +722,118 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.00744</v>
+        <v>0.0558</v>
       </c>
       <c r="E3">
-        <v>-0.0111</v>
+        <v>0.7490000000000001</v>
       </c>
       <c r="G3">
-        <v>0.1254716981132075</v>
+        <v>0.0138125</v>
       </c>
       <c r="H3">
-        <v>0.1254716981132075</v>
+        <v>0.0138125</v>
       </c>
       <c r="I3">
-        <v>0.210377358490566</v>
+        <v>0.030875</v>
       </c>
       <c r="J3">
-        <v>0.1786043171053653</v>
+        <v>0.030875</v>
       </c>
       <c r="K3">
-        <v>4.15</v>
+        <v>0.653</v>
       </c>
       <c r="L3">
-        <v>0.1957547169811321</v>
+        <v>0.0408125</v>
       </c>
       <c r="M3">
-        <v>4.21</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.07246127366609294</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>1.014457831325301</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>4.21</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.07246127366609294</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>1.014457831325301</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>18.1</v>
+        <v>4.5</v>
       </c>
       <c r="V3">
-        <v>0.3115318416523236</v>
+        <v>1.022727272727273</v>
       </c>
       <c r="W3">
-        <v>0.1</v>
+        <v>0.08896457765667576</v>
       </c>
       <c r="X3">
-        <v>0.0629800469693816</v>
+        <v>0.1075599347608003</v>
       </c>
       <c r="Y3">
-        <v>0.0370199530306184</v>
+        <v>-0.01859535710412458</v>
       </c>
       <c r="Z3">
-        <v>0.8909060346276685</v>
+        <v>3.16205533596838</v>
       </c>
       <c r="AA3">
-        <v>0.1591196639197237</v>
+        <v>0.09762845849802373</v>
       </c>
       <c r="AB3">
-        <v>0.06296659436320154</v>
+        <v>0.07543656774464441</v>
       </c>
       <c r="AC3">
-        <v>0.09615306955652214</v>
+        <v>0.02219189075337932</v>
       </c>
       <c r="AD3">
-        <v>0.101</v>
+        <v>4.77</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.101</v>
+        <v>4.77</v>
       </c>
       <c r="AG3">
-        <v>-17.999</v>
+        <v>0.2699999999999996</v>
       </c>
       <c r="AH3">
-        <v>0.001735365371729008</v>
+        <v>0.520174482006543</v>
       </c>
       <c r="AI3">
-        <v>0.002463354552327992</v>
+        <v>0.3712062256809338</v>
       </c>
       <c r="AJ3">
-        <v>-0.4488416747712028</v>
+        <v>0.05781584582441104</v>
       </c>
       <c r="AK3">
-        <v>-0.7859482118684776</v>
+        <v>0.03233532934131732</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.149</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.149</v>
       </c>
       <c r="AN3">
-        <v>0.02172043010752688</v>
+        <v>6.170763260025873</v>
+      </c>
+      <c r="AO3">
+        <v>3.315436241610739</v>
       </c>
       <c r="AP3">
-        <v>-3.870752688172043</v>
+        <v>0.3492884864165583</v>
+      </c>
+      <c r="AQ3">
+        <v>3.315436241610739</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minerva Insurance Company Public Ltd (CSE:MINE)</t>
+          <t>Atlantic Insurance Company Public Limited (CSE:ATL)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,25 +853,28 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.008960000000000001</v>
+        <v>-0.0385</v>
+      </c>
+      <c r="E4">
+        <v>-0.235</v>
       </c>
       <c r="G4">
-        <v>-0.03134751773049645</v>
+        <v>0.4687150837988828</v>
       </c>
       <c r="H4">
-        <v>-0.03134751773049645</v>
+        <v>0.4687150837988828</v>
       </c>
       <c r="I4">
-        <v>-0.04546099290780142</v>
+        <v>0.1128491620111732</v>
       </c>
       <c r="J4">
-        <v>-0.04546099290780142</v>
+        <v>0.06468759496037961</v>
       </c>
       <c r="K4">
-        <v>-0.805</v>
+        <v>1.36</v>
       </c>
       <c r="L4">
-        <v>-0.05709219858156029</v>
+        <v>0.07597765363128493</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -880,7 +883,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -889,79 +892,73 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>7.34</v>
+        <v>6.91</v>
       </c>
       <c r="V4">
-        <v>2.78030303030303</v>
+        <v>0.104380664652568</v>
       </c>
       <c r="W4">
-        <v>-0.1046814044213264</v>
+        <v>0.03358024691358025</v>
       </c>
       <c r="X4">
-        <v>0.1362248294391411</v>
+        <v>0.05973910642264389</v>
       </c>
       <c r="Y4">
-        <v>-0.2409062338604675</v>
+        <v>-0.02615885950906364</v>
       </c>
       <c r="Z4">
-        <v>8.011363636363633</v>
+        <v>0.7985367594575303</v>
       </c>
       <c r="AA4">
-        <v>-0.3642045454545453</v>
+        <v>0.05165542245676281</v>
       </c>
       <c r="AB4">
-        <v>0.08299835200778866</v>
+        <v>0.05973345133928448</v>
       </c>
       <c r="AC4">
-        <v>-0.447202897462334</v>
+        <v>-0.008078028882521675</v>
       </c>
       <c r="AD4">
-        <v>5.06</v>
+        <v>0.019</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>5.06</v>
+        <v>0.019</v>
       </c>
       <c r="AG4">
-        <v>-2.28</v>
+        <v>-6.891</v>
       </c>
       <c r="AH4">
-        <v>0.6571428571428571</v>
+        <v>0.0002869267128769688</v>
       </c>
       <c r="AI4">
-        <v>0.4080645161290323</v>
+        <v>0.0004576218117006671</v>
       </c>
       <c r="AJ4">
-        <v>-6.333333333333337</v>
+        <v>-0.1161880996138866</v>
       </c>
       <c r="AK4">
-        <v>-0.4505928853754941</v>
+        <v>-0.1991100580773787</v>
       </c>
       <c r="AL4">
-        <v>0.147</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.147</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>-10.92872570194384</v>
-      </c>
-      <c r="AO4">
-        <v>-4.360544217687075</v>
+        <v>0.008597285067873304</v>
       </c>
       <c r="AP4">
-        <v>4.924406047516199</v>
-      </c>
-      <c r="AQ4">
-        <v>-4.360544217687075</v>
+        <v>-3.118099547511312</v>
       </c>
     </row>
   </sheetData>
